--- a/Data/Electricity1970.xlsx
+++ b/Data/Electricity1970.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerry\Desktop\kerry\Cursos_UCR_profe\Econometria_basica\Laboratorios_econometria_basica_UCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FamiliaFeliz\Documents\GitHub\Tarea_1_Econometria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0AAD61-FC50-40AD-93C0-6C8733AA51E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B1B89-62D8-41D5-A211-3601F9000B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>output</t>
   </si>
@@ -44,6 +55,21 @@
   </si>
   <si>
     <t>COST</t>
+  </si>
+  <si>
+    <t>ln_COST</t>
+  </si>
+  <si>
+    <t>ln_output</t>
+  </si>
+  <si>
+    <t>ln_labor</t>
+  </si>
+  <si>
+    <t>ln_capital</t>
+  </si>
+  <si>
+    <t>ln_fuel</t>
   </si>
 </sst>
 </file>
@@ -110,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,13 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M160" sqref="M160"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -461,8 +494,23 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.21299999999999999</v>
       </c>
@@ -487,8 +535,28 @@
       <c r="H2">
         <v>0.25119999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>LN(A2)</f>
+        <v>-1.546463113272712</v>
+      </c>
+      <c r="J2">
+        <f>LN(B2)</f>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="K2">
+        <f>LN(C2)</f>
+        <v>8.8348422352244</v>
+      </c>
+      <c r="L2">
+        <f>LN(E2)</f>
+        <v>4.1735407578592474</v>
+      </c>
+      <c r="M2">
+        <f>LN(G2)</f>
+        <v>2.8903717578961645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.0427</v>
       </c>
@@ -513,8 +581,28 @@
       <c r="H3">
         <v>0.60570000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">LN(A3)</f>
+        <v>1.1127452791340222</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">LN(B3)</f>
+        <v>6.7673431252653922</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="2">LN(C3)</f>
+        <v>9.0327627449327785</v>
+      </c>
+      <c r="L3">
+        <f>LN(E3)</f>
+        <v>4.2228403809320465</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="3">LN(G3)</f>
+        <v>3.0477078351443332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.4059000000000008</v>
       </c>
@@ -539,8 +627,28 @@
       <c r="H4">
         <v>0.75419999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.2413371519545406</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>7.2527624180531873</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>8.9822973377736588</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L3:L66" si="4">LN(E4)</f>
+        <v>3.706031512931502</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>3.7264160576426621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.76060000000000005</v>
       </c>
@@ -565,8 +673,28 @@
       <c r="H5">
         <v>0.59160000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-0.27364768348797769</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.1743872698956368</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>9.1018516351993579</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>3.7194814014108331</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>3.3512715728924296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2587000000000002</v>
       </c>
@@ -591,8 +719,28 @@
       <c r="H6">
         <v>0.66059999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.81478942654204933</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5.6869753563398202</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>9.0141308219020537</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>4.2758324382674777</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>3.6686767467964168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.3422000000000001</v>
       </c>
@@ -617,8 +765,28 @@
       <c r="H7">
         <v>0.6411</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.29431005874200189</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.2094861528414214</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>8.5298112478518551</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>4.3098590863718194</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>3.5698143469549963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.6159</v>
       </c>
@@ -643,8 +811,28 @@
       <c r="H8">
         <v>0.60560000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.48467066628913946</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>9.1274195264345899</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>4.5050183040376499</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3.4679210137050633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.48870000000000002</v>
       </c>
@@ -669,8 +857,28 @@
       <c r="H9">
         <v>0.24349999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.71600647470602785</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>8.6013302749125078</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>4.455625548708074</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>3.5307625860167988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.1474</v>
       </c>
@@ -695,8 +903,28 @@
       <c r="H10">
         <v>0.50719999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.13749851318563361</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4.499809670330265</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>8.8804005525825129</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>4.3707255169187276</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>3.0681924602832518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.5491999999999999</v>
       </c>
@@ -721,8 +949,28 @@
       <c r="H11">
         <v>0.36309999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>2.0214415973818474</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>7.9959804747637602</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>9.0098556592181769</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>4.39020559559708</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2.1972245773362196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.0531999999999999</v>
       </c>
@@ -747,8 +995,28 @@
       <c r="H12">
         <v>0.67369999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.71939955170401104</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>5.9242557974145322</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>8.97270988998328</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>4.4126164586278875</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>3.2696221697061132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.63629999999999998</v>
       </c>
@@ -773,8 +1041,28 @@
       <c r="H13">
         <v>0.38790000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-0.45208512874339063</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.2046926193909657</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8.8093402808271772</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>4.0648814220714593</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>3.2347491740244907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.1503999999999999</v>
       </c>
@@ -799,8 +1087,28 @@
       <c r="H14">
         <v>0.70240000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.147529428902724</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>5.934894195619588</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>8.974039390057758</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>4.0989506047693416</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>3.7487579152687887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10.313599999999999</v>
       </c>
@@ -825,8 +1133,28 @@
       <c r="H15">
         <v>0.51039999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.3334634126389817</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>7.542213463193403</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>8.8296551897196469</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>4.2147907152979682</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>3.2425923514855168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.8487999999999998</v>
       </c>
@@ -851,8 +1179,28 @@
       <c r="H16">
         <v>0.53820000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.766236511996969</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>6.932447891572509</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>8.8669087750864559</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>4.2228403809320465</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>3.1036579962531299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.5049999999999999</v>
       </c>
@@ -877,8 +1225,28 @@
       <c r="H17">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.5051878910603012</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>6.1463292576688975</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>9.0372171802116323</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>4.334672938290411</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>3.2902658209548736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.5971000000000002</v>
       </c>
@@ -903,8 +1271,28 @@
       <c r="H18">
         <v>0.60799999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.722248606463926</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>6.8437499490062246</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>8.9493988948665582</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>4.3463605961720306</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>3.2347491740244907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.7254999999999998</v>
       </c>
@@ -929,8 +1317,28 @@
       <c r="H19">
         <v>0.49049999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.3152010710116451</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>6.4661447242376191</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>8.900021339298867</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>4.166758242731146</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>3.0522023950195245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.0065</v>
       </c>
@@ -955,8 +1363,28 @@
       <c r="H20">
         <v>0.63070000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1.7928422161792927</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>7.191429330036379</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>8.8069885293487555</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>3.9477182807525977</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3.2281090669915229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12.782999999999999</v>
       </c>
@@ -981,8 +1409,28 @@
       <c r="H21">
         <v>0.65959999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>2.5481161631858846</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>7.8754992924452081</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>9.0442668972669704</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>4.252700672531871</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>3.4330512827760606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.6214000000000004</v>
       </c>
@@ -1007,8 +1455,28 @@
       <c r="H22">
         <v>0.65539999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1.8903068279526349</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>6.752270376141742</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>8.9914029624323746</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>4.2147907152979682</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>3.6783542580574253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.6428999999999991</v>
       </c>
@@ -1033,8 +1501,28 @@
       <c r="H23">
         <v>0.70669999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>2.2662218932577387</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>7.8969246562688644</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>8.7584752410337021</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>4.3623340013281453</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>3.156527969136703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.6852</v>
       </c>
@@ -1059,8 +1547,28 @@
       <c r="H24">
         <v>0.68240000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>2.1616204276374797</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>7.3944931072190379</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>8.9761864281419204</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>4.3722287921937708</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>3.4556887235068996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.6372</v>
       </c>
@@ -1085,8 +1593,28 @@
       <c r="H25">
         <v>0.58050000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2.1560784562185393</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>6.9939329752231894</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>9.0487527733610165</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>3.6668127657646887</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>3.5234150143864045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11.241899999999999</v>
       </c>
@@ -1111,8 +1639,28 @@
       <c r="H26">
         <v>0.6694</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>2.4196478693259458</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>7.7222347447096071</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>8.8382051021467358</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>4.3956336380800982</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>3.3707381741774469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.6220999999999997</v>
       </c>
@@ -1137,8 +1685,28 @@
       <c r="H27">
         <v>0.55940000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1.8904125401889247</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>7.3132203870903014</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>8.9344155777225591</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>4.4169110365273836</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>3.0631619238471068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10.9665</v>
       </c>
@@ -1163,8 +1731,28 @@
       <c r="H28">
         <v>0.66839999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>2.3948451714193433</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>7.8264431354560138</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>8.9109041561124425</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>4.0472529546882505</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>3.3112982026194007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13.627000000000001</v>
       </c>
@@ -1189,8 +1777,28 @@
       <c r="H29">
         <v>0.62119999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>2.6120531187676836</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>7.7985230536252059</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>8.9677667739490268</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>4.1830420169833875</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>3.4233241035426878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.4394999999999998</v>
       </c>
@@ -1215,8 +1823,28 @@
       <c r="H30">
         <v>0.4672</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>2.006803642285615</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>7.1647203787718574</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>8.8277745621139267</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>4.359589289554946</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>3.0648151409911852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9.7843</v>
       </c>
@@ -1241,8 +1869,28 @@
       <c r="H31">
         <v>0.61460000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>2.2807790602205977</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>7.3944931072190379</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>9.0307052036075355</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>4.3325737509543512</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>3.4448122724143024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20.867100000000001</v>
       </c>
@@ -1267,8 +1915,28 @@
       <c r="H32">
         <v>0.66869999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>3.0381737559954796</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>8.2852611340689482</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>9.03641427448256</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>4.3105306329688116</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>3.5025257792465783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19.709199999999999</v>
       </c>
@@ -1293,8 +1961,28 @@
       <c r="H33">
         <v>0.69550000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>2.9810855318071527</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>7.8943180638416237</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>9.1574510678002063</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>4.4036658097773627</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>3.9210144608656017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14.043100000000001</v>
       </c>
@@ -1319,8 +2007,28 @@
       <c r="H34">
         <v>0.76680000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>2.6421311719462337</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>7.6014023345837334</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>9.0608572819833721</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>4.3044028739876552</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>3.4224564641522304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10.190200000000001</v>
       </c>
@@ -1345,8 +2053,28 @@
       <c r="H35">
         <v>0.6028</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>2.3214264741274024</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>7.9244341848875601</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>8.7543185402508659</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>4.1931637298365043</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>3.0538596622305998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16.176400000000001</v>
       </c>
@@ -1371,8 +2099,28 @@
       <c r="H36">
         <v>0.66559999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>2.7835533899644709</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>7.8188324438034043</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>8.9981923971347673</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>4.1990348533296222</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>3.4848826778169091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>42.251399999999997</v>
       </c>
@@ -1397,8 +2145,28 @@
       <c r="H37">
         <v>0.70720000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>3.7436374893488691</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>8.8983656069553572</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>8.679228704086924</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>4.5224731253011079</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>3.6689420177314198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22.561199999999999</v>
       </c>
@@ -1423,8 +2191,28 @@
       <c r="H38">
         <v>0.70250000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>3.1162316167046029</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>8.1806009475944492</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>8.895315879292637</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>4.359972725142466</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>3.7279823718680736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33.017499999999998</v>
       </c>
@@ -1449,8 +2237,28 @@
       <c r="H39">
         <v>0.62980000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>3.4970377239358221</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>8.8301043179137935</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>8.8970190723691367</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>4.2455623739647219</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>3.3478141856525099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18.8963</v>
       </c>
@@ -1475,8 +2283,28 @@
       <c r="H40">
         <v>0.66090000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>2.9389661357049306</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>7.6108527903952501</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>9.287875322468901</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>4.3766371373894435</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>3.8480176754522337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13.267899999999999</v>
       </c>
@@ -1501,8 +2329,28 @@
       <c r="H41">
         <v>0.62709999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>2.5853475841254414</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>7.8018004019089728</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>9.0784932744157594</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>4.3325737509543512</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>3.3451489398106089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21.545400000000001</v>
       </c>
@@ -1527,8 +2375,28 @@
       <c r="H42">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>3.0701623366879862</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>8.2892883230003171</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>9.0101867650229455</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>4.3185808496160467</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>3.5611852774614525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35.530299999999997</v>
       </c>
@@ -1553,8 +2421,28 @@
       <c r="H43">
         <v>0.60780000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>3.5703858535661039</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>8.8202563659063209</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>8.9616559108692488</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>4.2131640975640829</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>3.3953469679839796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>29.801100000000002</v>
       </c>
@@ -1579,8 +2467,28 @@
       <c r="H44">
         <v>0.71250000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>3.394545305581778</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>8.339739766019143</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>8.9867517216200898</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>4.3056854014171595</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>3.8591642758597495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30.877300000000002</v>
       </c>
@@ -1605,8 +2513,28 @@
       <c r="H45">
         <v>0.60740000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>3.430021286100732</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>8.6381711179691401</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>9.2284248574449919</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>4.1115293869762013</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>3.3268257850189613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>24.3565</v>
       </c>
@@ -1631,8 +2559,28 @@
       <c r="H46">
         <v>0.54810000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>3.1927987543580811</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>8.8236479491913027</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>8.7541418127389825</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>4.252700672531871</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>2.9226722136868113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17.4802</v>
       </c>
@@ -1657,8 +2605,28 @@
       <c r="H47">
         <v>0.67889999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2.8610688118095315</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>8.3303815693494183</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>8.9275649090706537</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>4.3044028739876552</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>3.2020836216948254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19.9008</v>
       </c>
@@ -1683,8 +2651,28 @@
       <c r="H48">
         <v>0.67269999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2.9907599319274332</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>8.6630236396277773</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>8.9833833084587447</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>4.2754153371144028</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>3.1021082734331418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>28.786100000000001</v>
       </c>
@@ -1709,8 +2697,28 @@
       <c r="H49">
         <v>0.69130000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>3.3598926317453741</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>9.1757489272065644</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>8.8078802443882065</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>4.3762851840447672</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>3.0087965628831923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>27.083200000000001</v>
       </c>
@@ -1735,8 +2743,28 @@
       <c r="H50">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>3.2989136094526956</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>8.9741115811133181</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>8.870657386412713</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>4.3109736068070408</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>3.0012172037845608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22.4421</v>
       </c>
@@ -1761,8 +2789,28 @@
       <c r="H51">
         <v>0.70550000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>3.1109386591635908</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>8.6390567791730781</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>9.099869040542691</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>4.3623340013281453</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>3.2548605385877107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>30.206700000000001</v>
       </c>
@@ -1787,8 +2835,28 @@
       <c r="H52">
         <v>0.7147</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>3.408063754079433</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>8.5728170951642344</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>8.8656081151215549</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>4.2949016148635151</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>3.6464520048739817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30.1678</v>
       </c>
@@ -1813,8 +2881,28 @@
       <c r="H53">
         <v>0.69079999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>3.4067751303928446</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>9.1697266890908864</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>8.8613756279073481</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>4.0939611553977633</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>3.0057321081323245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>32.584000000000003</v>
       </c>
@@ -1839,8 +2927,28 @@
       <c r="H54">
         <v>0.6018</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>3.4838213703461114</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>8.9784083146288935</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>8.8705239497945563</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>3.8917590717465349</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>3.1284258152794564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47.386400000000002</v>
       </c>
@@ -1865,8 +2973,28 @@
       <c r="H55">
         <v>0.66279999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>3.8583352677004372</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>9.1621999966482477</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>8.9391312064428199</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>4.4293872060337192</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>3.4526031697220554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>24.290299999999998</v>
       </c>
@@ -1891,8 +3019,28 @@
       <c r="H56">
         <v>0.63660000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>3.1900770936994411</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>8.5784764198331356</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>9.1860302612226548</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>4.3044028739876552</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>3.326401993805209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>31.292200000000001</v>
       </c>
@@ -1917,8 +3065,28 @@
       <c r="H57">
         <v>0.57520000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>3.4433688652123542</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>8.92052268739398</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>8.9951315076077538</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>4.2147907152979682</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>3.1581359464099745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>31.988399999999999</v>
       </c>
@@ -1943,8 +3111,28 @@
       <c r="H58">
         <v>0.64639999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>3.4653733370807189</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>9.2251304574488184</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>8.7699607855622244</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>4.2923754127212348</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>2.919623069501613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>41.901600000000002</v>
       </c>
@@ -1969,8 +3157,28 @@
       <c r="H59">
         <v>0.69410000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>3.7353240123565374</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>9.4691598997428628</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>8.7734836630768491</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>4.1324428508207589</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>3.0798436161726435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58.115400000000001</v>
       </c>
@@ -1995,8 +3203,28 @@
       <c r="H60">
         <v>0.65610000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>4.06243068897657</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>9.7911583675622076</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>8.7464635355457236</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>4.2958558134091964</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>3.0262178306915444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>40.528100000000002</v>
       </c>
@@ -2021,8 +3249,28 @@
       <c r="H61">
         <v>0.67110000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>3.7019955606862003</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>8.8379714913572087</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>8.8201898939777603</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>4.3056854014171595</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>3.582549023796477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>37.066600000000001</v>
       </c>
@@ -2047,8 +3295,28 @@
       <c r="H62">
         <v>0.55659999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>3.6127162945856037</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>8.8178902009455129</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>9.227972999466088</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>4.3463605961720306</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>3.2434045215860752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>25.168600000000001</v>
       </c>
@@ -2073,8 +3341,28 @@
       <c r="H63">
         <v>0.39090000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>3.2255971858283257</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>8.8215848774309649</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>8.9653256303637985</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>4.3067641501733345</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>3.0095858678425267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>45.182699999999997</v>
       </c>
@@ -2099,8 +3387,28 @@
       <c r="H64">
         <v>0.69810000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>3.8107142702104175</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>9.4677694012569429</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>9.0264247453277129</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="4"/>
+        <v>4.1860117507479249</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>3.0925413294820516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>55.176400000000001</v>
       </c>
@@ -2125,8 +3433,28 @@
       <c r="H65">
         <v>0.64449999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>4.0105353256314933</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>9.2923810823123922</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>8.9949119821168004</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="4"/>
+        <v>4.2695575797787599</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>3.4582107849885877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>41.1798</v>
       </c>
@@ -2151,8 +3479,28 @@
       <c r="H66">
         <v>0.56659999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>3.7179478448612833</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>9.1350778874756351</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>9.0661847414741548</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>4.3325737509543512</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>3.2019493773984808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80.359300000000005</v>
       </c>
@@ -2177,8 +3525,28 @@
       <c r="H67">
         <v>0.81359999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="5">LN(A67)</f>
+        <v>4.3865078291074004</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="6">LN(B67)</f>
+        <v>9.6995950058140306</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="7">LN(C67)</f>
+        <v>8.8932445934225708</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L130" si="8">LN(E67)</f>
+        <v>4.4012163290670232</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="9">LN(G67)</f>
+        <v>3.7128205648853432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68.48</v>
       </c>
@@ -2203,8 +3571,28 @@
       <c r="H68">
         <v>0.6976</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>4.2265417318334864</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>9.4368382911029656</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>9.0048942924959992</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="8"/>
+        <v>4.3868275916149235</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>3.5776182301351418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>97.385900000000007</v>
       </c>
@@ -2229,8 +3617,28 @@
       <c r="H69">
         <v>0.69310000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>4.5786814363088206</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>9.5357516612379705</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>8.9601300482331876</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="8"/>
+        <v>4.4834544273039949</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>3.7877537295225969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>52.763399999999997</v>
       </c>
@@ -2255,8 +3663,28 @@
       <c r="H70">
         <v>0.59760000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>3.965817768532435</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>9.1209625608249656</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>9.2470097563331937</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="8"/>
+        <v>4.4036658097773627</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>3.5781797101105051</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>38.847200000000001</v>
       </c>
@@ -2281,8 +3709,28 @@
       <c r="H71">
         <v>0.69779999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>3.6596360021442678</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>9.2160241884444805</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>8.7054885362218855</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="8"/>
+        <v>4.4015596177761962</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>3.2513042920875384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>48.112499999999997</v>
       </c>
@@ -2307,8 +3755,28 @@
       <c r="H72">
         <v>0.57299999999999995</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>3.8735420186098644</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>9.3159608538398668</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>9.0376356250769287</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="8"/>
+        <v>4.2481380354015172</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>3.115894698439559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>79.070499999999996</v>
       </c>
@@ -2333,8 +3801,28 @@
       <c r="H73">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>4.3703398595736553</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>9.4498296018264778</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>9.1358872633466426</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>4.2606073082183737</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>3.6175901979528269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>111.88630000000001</v>
       </c>
@@ -2359,8 +3847,28 @@
       <c r="H74">
         <v>0.71440000000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>4.7174831770808909</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>10.052640047938569</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>8.8354621781978597</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="8"/>
+        <v>4.4293872060337192</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>3.508388221254704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>77.884900000000002</v>
       </c>
@@ -2385,8 +3893,28 @@
       <c r="H75">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>4.3552320958334683</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>9.5252970865628441</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>8.8697904328148969</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="8"/>
+        <v>4.2605649661366893</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>3.5542503163304651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>87.101500000000001</v>
       </c>
@@ -2411,8 +3939,28 @@
       <c r="H76">
         <v>0.66830000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>4.4670741052945528</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>10.229476459142496</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>8.7606459083810773</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="8"/>
+        <v>4.1526134703460764</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>3.0106208860477417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>57.726700000000001</v>
       </c>
@@ -2437,8 +3985,28 @@
       <c r="H77">
         <v>0.58320000000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>4.0557198047852623</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>9.2107402919975101</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>8.7753733300094368</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="8"/>
+        <v>4.334672938290411</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>3.3356236582208596</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>90.716800000000006</v>
       </c>
@@ -2463,8 +4031,28 @@
       <c r="H78">
         <v>0.72870000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>4.5077425659887158</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>9.7573050423580465</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>9.1260311590324878</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>4.2900072841462986</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>3.6077127816952759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>183.23150000000001</v>
       </c>
@@ -2489,8 +4077,28 @@
       <c r="H79">
         <v>0.64549999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>5.2107503806909277</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>10.207952993022255</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>9.2017394902069007</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>4.3628438152571078</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>3.7318862601943015</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>169.2354</v>
       </c>
@@ -2515,8 +4123,28 @@
       <c r="H80">
         <v>0.71440000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>5.1312906451468567</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>10.554327260799823</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>9.1179136310634643</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>4.1895335225584303</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>3.4528311180927367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>76.252799999999993</v>
       </c>
@@ -2541,8 +4169,28 @@
       <c r="H81">
         <v>0.71719999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>4.3340541361247853</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>9.3645196228238579</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>9.2530473088758232</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>4.3902427894452218</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>3.8301641495554111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>134.22829999999999</v>
       </c>
@@ -2567,8 +4215,28 @@
       <c r="H82">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>4.8995420815903206</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>9.8753452465898484</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>9.1931250347565818</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>4.2133120812861442</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>3.6584898318369872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>168.3777</v>
       </c>
@@ -2593,8 +4261,28 @@
       <c r="H83">
         <v>0.79879999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>5.1262096702367028</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>10.440331738700673</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>8.6453805802545922</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>4.3868275916149235</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>3.7020078977292825</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>125.3356</v>
       </c>
@@ -2619,8 +4307,28 @@
       <c r="H84">
         <v>0.65439999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>4.8309949396646346</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>10.085850775128717</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>8.993098123670265</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>4.3090795269178166</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>3.4993278232112619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>191.5625</v>
       </c>
@@ -2645,8 +4353,28 @@
       <c r="H85">
         <v>0.68400000000000005</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>5.2552141261305305</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>10.340386726133822</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>9.1911677461873715</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>4.2419165066891482</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>3.5920270857479055</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>240.5137</v>
       </c>
@@ -2671,8 +4399,28 @@
       <c r="H86">
         <v>0.64219999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>5.4827770525803556</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>10.295968733085997</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>9.1391590361184498</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>4.4036658097773627</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>3.7349802909965995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.13039999999999999</v>
       </c>
@@ -2697,8 +4445,28 @@
       <c r="H87">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>-2.0371486294895846</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>8.7011301094780436</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>4.5288289527313692</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="9"/>
+        <v>3.5025197549868841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.72929999999999995</v>
       </c>
@@ -2723,8 +4491,28 @@
       <c r="H88">
         <v>0.55549999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>-0.31567010899194975</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>8.9837797390829319</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>4.3236557213475519</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>3.5177055309220457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1.7705</v>
       </c>
@@ -2749,8 +4537,28 @@
       <c r="H89">
         <v>0.55269999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>0.57126199256982135</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>5.0304379213924353</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>9.3023633366222356</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>4.0537308793368032</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>3.8321136221998442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.2366999999999999</v>
       </c>
@@ -2775,8 +4583,28 @@
       <c r="H90">
         <v>0.58609999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>0.8050015653340874</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>5.2882670306945352</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>8.8602863186315659</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="8"/>
+        <v>4.1735407578592474</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>3.6375861597263857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.5592999999999999</v>
       </c>
@@ -2801,8 +4629,28 @@
       <c r="H91">
         <v>0.63249999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>0.93973378360062165</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>5.4930614433405482</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>8.8537811356287826</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>4.4036658097773627</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>3.5096331638369098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.0358000000000001</v>
       </c>
@@ -2827,8 +4675,28 @@
       <c r="H92">
         <v>0.58069999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>0.71088886203610246</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>6.4248690239053881</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>9.1640576615155229</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="8"/>
+        <v>4.4036658097773627</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>2.9172300453990334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7.6235999999999997</v>
       </c>
@@ -2853,8 +4721,28 @@
       <c r="H93">
         <v>0.71930000000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>2.0312486990783509</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>7.200424892944957</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>8.7700384473823156</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="8"/>
+        <v>4.3722287921937708</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="9"/>
+        <v>3.6414811957939541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>11.1091</v>
       </c>
@@ -2879,8 +4767,28 @@
       <c r="H94">
         <v>0.55069999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>2.4077645922693951</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>7.5812098261963463</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>8.8486256065884099</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="8"/>
+        <v>4.4126164586278875</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="9"/>
+        <v>3.3415676814137427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9.4673999999999996</v>
       </c>
@@ -2905,8 +4813,28 @@
       <c r="H95">
         <v>0.60109999999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>2.247854318287541</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>7.7111012518401578</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>8.8124237025853471</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>4.0936276386271162</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="9"/>
+        <v>3.1220697267357655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>13.8262</v>
       </c>
@@ -2931,8 +4859,28 @@
       <c r="H96">
         <v>0.67120000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>2.6265653429182318</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>7.8563195714065879</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>9.0282055977372799</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="8"/>
+        <v>4.3506778563806288</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="9"/>
+        <v>3.5316728597324998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17.2895</v>
       </c>
@@ -2957,8 +4905,28 @@
       <c r="H97">
         <v>0.70179999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>2.8500993808270816</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>7.9240723249234168</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>8.9945335906234885</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="8"/>
+        <v>4.3902427894452218</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="9"/>
+        <v>3.8213014816204609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16.170400000000001</v>
       </c>
@@ -2983,8 +4951,28 @@
       <c r="H98">
         <v>0.62250000000000005</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>2.7831824104506513</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>7.9596253050981147</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>8.923906853090239</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>4.4012163290670232</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="9"/>
+        <v>3.4090795687789615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24.397500000000001</v>
       </c>
@@ -3009,8 +4997,28 @@
       <c r="H99">
         <v>0.57650000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <f t="shared" si="5"/>
+        <v>3.1944806680334792</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>8.157657015196472</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>9.0451390244805125</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="8"/>
+        <v>4.323072491830211</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="9"/>
+        <v>3.6375861597263857</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>27.244299999999999</v>
       </c>
@@ -3035,8 +5043,28 @@
       <c r="H100">
         <v>0.59919999999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>3.3048443249173287</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>8.4268307513358458</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>9.1715745953235963</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="8"/>
+        <v>4.3325737509543512</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="9"/>
+        <v>3.574155796285031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>29.486999999999998</v>
       </c>
@@ -3061,8 +5089,28 @@
       <c r="H101">
         <v>0.52359999999999995</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <f t="shared" si="5"/>
+        <v>3.3839494882526018</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>8.5739515252348468</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>9.0089986736641858</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="8"/>
+        <v>4.3325737509543512</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="9"/>
+        <v>3.1283995429315388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>35.109099999999998</v>
       </c>
@@ -3087,8 +5135,28 @@
       <c r="H102">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <f t="shared" si="5"/>
+        <v>3.558460356129205</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>8.6480459998350003</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>8.985755782865569</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="8"/>
+        <v>4.3866409722246269</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="9"/>
+        <v>3.7526778576820563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25.481400000000001</v>
       </c>
@@ -3113,8 +5181,28 @@
       <c r="H103">
         <v>0.56640000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <f t="shared" si="5"/>
+        <v>3.2379487742494835</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>8.6485722694726181</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>8.8460810247405455</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="8"/>
+        <v>4.359589289554946</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="9"/>
+        <v>3.1888124153338082</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42.411700000000003</v>
       </c>
@@ -3139,8 +5227,28 @@
       <c r="H104">
         <v>0.61670000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>3.7474242675687619</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>9.0653145999259248</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>8.8744017929344299</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="8"/>
+        <v>4.2900072841462986</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="9"/>
+        <v>3.327525724565584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>72.035499999999999</v>
       </c>
@@ -3165,8 +5273,28 @@
       <c r="H105">
         <v>0.67710000000000004</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <f t="shared" si="5"/>
+        <v>4.2771590530596599</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>9.4512452528690343</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>8.991915669361914</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="8"/>
+        <v>4.3044028739876552</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="9"/>
+        <v>3.6248048253616529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>146.989</v>
       </c>
@@ -3191,8 +5319,28 @@
       <c r="H106">
         <v>0.58089999999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <f t="shared" si="5"/>
+        <v>4.9903577540468644</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>10.132493884118713</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>9.2003668008529615</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="8"/>
+        <v>4.3271083569133006</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="9"/>
+        <v>3.5107749928599987</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>51.741500000000002</v>
       </c>
@@ -3217,8 +5365,28 @@
       <c r="H107">
         <v>0.56799999999999995</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <f t="shared" si="5"/>
+        <v>3.9462601674470421</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>9.2458040362517515</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>9.1672898544754879</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>4.2197429716164345</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="9"/>
+        <v>3.3372737825323981</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>21.558700000000002</v>
       </c>
@@ -3243,8 +5411,28 @@
       <c r="H108">
         <v>0.67149999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <f t="shared" si="5"/>
+        <v>3.0707794473768573</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>8.2651356299373848</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>9.1631103900891695</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="8"/>
+        <v>4.1521259301340114</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="9"/>
+        <v>3.4304130829801114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14.271000000000001</v>
       </c>
@@ -3269,8 +5457,28 @@
       <c r="H109">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <f t="shared" si="5"/>
+        <v>2.6582295061182544</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>7.5501353424884288</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>9.1924452043216256</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="8"/>
+        <v>4.2400453563936544</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="9"/>
+        <v>3.5835189384561099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>66.103200000000001</v>
       </c>
@@ -3295,8 +5503,28 @@
       <c r="H110">
         <v>0.62690000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <f t="shared" si="5"/>
+        <v>4.1912171571835728</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>9.3789854979538934</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>9.0721616256844602</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="8"/>
+        <v>4.3225287216326596</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="9"/>
+        <v>3.4446431311250745</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>113.2555</v>
       </c>
@@ -3321,8 +5549,28 @@
       <c r="H111">
         <v>0.54349999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <f t="shared" si="5"/>
+        <v>4.729646328305309</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>10.02224788825697</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>9.1591291794813383</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="8"/>
+        <v>4.3403188312740912</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="9"/>
+        <v>3.2200311572146894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90.371799999999993</v>
       </c>
@@ -3347,8 +5595,28 @@
       <c r="H112">
         <v>0.5847</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <f t="shared" si="5"/>
+        <v>4.5039322718299202</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>9.9967957296697794</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>8.9814893137880603</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>4.4229046276261954</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="9"/>
+        <v>3.1316389679144199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>240.48580000000001</v>
       </c>
@@ -3373,8 +5641,28 @@
       <c r="H113">
         <v>0.71879999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <f t="shared" si="5"/>
+        <v>5.4826610441436268</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>10.895219652910134</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>8.7109277052735976</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>4.361568792771485</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="9"/>
+        <v>3.4402706480482603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>277.29649999999998</v>
       </c>
@@ -3399,8 +5687,28 @@
       <c r="H114">
         <v>0.63119999999999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <f t="shared" si="5"/>
+        <v>5.6250873308327378</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="6"/>
+        <v>11.187846082621247</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>8.9119235544321445</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>4.0307122969772449</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="9"/>
+        <v>3.2225251579447742</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>107.9776</v>
       </c>
@@ -3425,8 +5733,28 @@
       <c r="H115">
         <v>0.63859999999999995</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <f t="shared" si="5"/>
+        <v>4.6819237982049211</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="6"/>
+        <v>9.8230906154640998</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>8.8084035322024583</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>4.334672938290411</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="9"/>
+        <v>3.4954585265732474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>269.77280000000002</v>
       </c>
@@ -3451,8 +5779,28 @@
       <c r="H116">
         <v>0.62119999999999997</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="5"/>
+        <v>5.5975801232726106</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>10.755133090916752</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>9.1861890628546501</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="8"/>
+        <v>4.2419165066891482</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="9"/>
+        <v>3.5025468638697137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>79.620699999999999</v>
       </c>
@@ -3477,8 +5825,28 @@
       <c r="H117">
         <v>0.69430000000000003</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <f t="shared" si="5"/>
+        <v>4.3772741092943876</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>9.7116003908724728</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>9.1489935519373802</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="8"/>
+        <v>4.3572727702076524</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="9"/>
+        <v>3.7426239917484998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>33.881399999999999</v>
       </c>
@@ -3503,8 +5871,28 @@
       <c r="H118">
         <v>0.61399999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>3.5228661912441601</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="6"/>
+        <v>8.9067998835899438</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>8.92435286294047</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="8"/>
+        <v>4.2816812997250064</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="9"/>
+        <v>3.2542468297018994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14.9529</v>
       </c>
@@ -3529,8 +5917,28 @@
       <c r="H119">
         <v>0.72650000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>2.7049052609581312</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="6"/>
+        <v>7.7514753180214564</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>9.0558164558382508</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="8"/>
+        <v>3.9869449319454056</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="9"/>
+        <v>3.6614080467470469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>33.973300000000002</v>
       </c>
@@ -3555,8 +5963,28 @@
       <c r="H120">
         <v>0.71879999999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>3.5255749219935666</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="6"/>
+        <v>8.6496239785967273</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>9.2127574484917876</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="8"/>
+        <v>4.3580156647123784</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="9"/>
+        <v>3.7416142090978015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>78.702799999999996</v>
       </c>
@@ -3581,8 +6009,28 @@
       <c r="H121">
         <v>0.58440000000000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>4.3656787329353239</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="6"/>
+        <v>9.7487033387352611</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>9.0070974823683088</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="8"/>
+        <v>4.3681685535002801</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="9"/>
+        <v>3.2401597075049895</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>19.4391</v>
       </c>
@@ -3607,8 +6055,28 @@
       <c r="H122">
         <v>0.58930000000000005</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>2.9672865016642902</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="6"/>
+        <v>8.4250779025084324</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>9.0546650304427434</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="8"/>
+        <v>4.3368200418358027</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="9"/>
+        <v>3.1687481666522448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>282.24790000000002</v>
       </c>
@@ -3633,8 +6101,28 @@
       <c r="H123">
         <v>0.69830000000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <f t="shared" si="5"/>
+        <v>5.642785762789515</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="6"/>
+        <v>10.783943831401068</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>9.177133062017564</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="8"/>
+        <v>4.2594351820876932</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="9"/>
+        <v>3.5975861956675455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>282.94009999999997</v>
       </c>
@@ -3659,8 +6147,28 @@
       <c r="H124">
         <v>0.63560000000000005</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>5.6452352144625486</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>10.892284975197031</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>9.1715891485953289</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="8"/>
+        <v>4.2967410403915212</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="9"/>
+        <v>3.5450090836942345</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>469.18520000000001</v>
       </c>
@@ -3685,8 +6193,28 @@
       <c r="H125">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <f t="shared" si="5"/>
+        <v>6.1509975732298248</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>11.104806839396501</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>9.1202001051119179</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="8"/>
+        <v>4.3691946558585038</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="9"/>
+        <v>3.7138159394039678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>737.40880000000004</v>
       </c>
@@ -3711,8 +6239,28 @@
       <c r="H126">
         <v>0.66259999999999997</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <f t="shared" si="5"/>
+        <v>6.6031424195503714</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="6"/>
+        <v>11.657025808943985</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>9.0405953973866673</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="8"/>
+        <v>4.338858139272503</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="9"/>
+        <v>3.6597080768136565</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20.883600000000001</v>
       </c>
@@ -3737,8 +6285,28 @@
       <c r="H127">
         <v>0.68700000000000006</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <f t="shared" si="5"/>
+        <v>3.0389641619459917</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="6"/>
+        <v>8.7417757069247006</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="7"/>
+        <v>8.8094179303174176</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="8"/>
+        <v>4.2451181174064221</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="9"/>
+        <v>3.0583314153105112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>21.779199999999999</v>
       </c>
@@ -3763,8 +6331,28 @@
       <c r="H128">
         <v>0.63190000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <f t="shared" si="5"/>
+        <v>3.080955385884395</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>8.8167050156215954</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="7"/>
+        <v>9.1505128698753957</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="8"/>
+        <v>3.9075731193545153</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="9"/>
+        <v>3.0007198150650303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>22.843599999999999</v>
       </c>
@@ -3789,8 +6377,28 @@
       <c r="H129">
         <v>0.66710000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <f t="shared" si="5"/>
+        <v>3.1286709905810239</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="6"/>
+        <v>8.2398574110186011</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>8.7686582750147277</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="8"/>
+        <v>4.334672938290411</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="9"/>
+        <v>3.5339493039118945</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>31.636800000000001</v>
       </c>
@@ -3815,8 +6423,28 @@
       <c r="H130">
         <v>0.66059999999999997</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <f t="shared" si="5"/>
+        <v>3.4543209999844282</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>8.4375004225069894</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="7"/>
+        <v>8.777769704962763</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="8"/>
+        <v>4.2599437428716662</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="9"/>
+        <v>3.7374076792184217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>48.1678</v>
       </c>
@@ -3841,8 +6469,28 @@
       <c r="H131">
         <v>0.59850000000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <f t="shared" ref="I131:I159" si="10">LN(A131)</f>
+        <v>3.8746907480193298</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J159" si="11">LN(B131)</f>
+        <v>9.1405614773682657</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K159" si="12">LN(C131)</f>
+        <v>8.8723357618702039</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131:L159" si="13">LN(E131)</f>
+        <v>4.4042038912852339</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131:M159" si="14">LN(G131)</f>
+        <v>3.29182884460679</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5.9280999999999997</v>
       </c>
@@ -3867,8 +6515,28 @@
       <c r="H132">
         <v>0.6714</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <f t="shared" si="10"/>
+        <v>1.7797037569473206</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="11"/>
+        <v>6.5834092221587648</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="12"/>
+        <v>8.7691247625586399</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="13"/>
+        <v>4.1285205206892392</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="14"/>
+        <v>3.7815497889552443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>25.609400000000001</v>
       </c>
@@ -3893,8 +6561,28 @@
       <c r="H133">
         <v>0.58960000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <f t="shared" si="10"/>
+        <v>3.2429594715886845</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="11"/>
+        <v>8.7954308050400183</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="12"/>
+        <v>8.9508362135033757</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="13"/>
+        <v>4.5094299137072555</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="14"/>
+        <v>3.0572506135324078</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>17.463000000000001</v>
       </c>
@@ -3919,8 +6607,28 @@
       <c r="H134">
         <v>0.54259999999999997</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <f t="shared" si="10"/>
+        <v>2.8600843569577084</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="11"/>
+        <v>8.2870250251650628</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="12"/>
+        <v>8.771222819093671</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="13"/>
+        <v>4.4834544273039949</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="14"/>
+        <v>3.1556804013710531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1.3643000000000001</v>
       </c>
@@ -3945,8 +6653,28 @@
       <c r="H135">
         <v>0.56220000000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <f t="shared" si="10"/>
+        <v>0.31064147658669145</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="11"/>
+        <v>5.0369526024136295</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="12"/>
+        <v>9.0229246619883661</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="13"/>
+        <v>4.4712387133422293</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="14"/>
+        <v>3.5773890780805733</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>46.7988</v>
       </c>
@@ -3971,8 +6699,28 @@
       <c r="H136">
         <v>0.58750000000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <f t="shared" si="10"/>
+        <v>3.8458575615692232</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="11"/>
+        <v>9.3259877955021437</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="12"/>
+        <v>9.0921636338291432</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="13"/>
+        <v>4.4294587342337426</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="14"/>
+        <v>3.1623478005263284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>50.209299999999999</v>
       </c>
@@ -3997,8 +6745,28 @@
       <c r="H137">
         <v>0.63919999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <f t="shared" si="10"/>
+        <v>3.9162002685035042</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>9.4750096701188902</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="12"/>
+        <v>8.8150730888444642</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="13"/>
+        <v>4.0239220979255546</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="14"/>
+        <v>3.2643844200989665</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>40.893999999999998</v>
       </c>
@@ -4023,8 +6791,28 @@
       <c r="H138">
         <v>0.6179</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <f t="shared" si="10"/>
+        <v>3.7109833530208625</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>9.1646105202700081</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="12"/>
+        <v>8.8938705466145738</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="13"/>
+        <v>4.1163506424847149</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="14"/>
+        <v>3.2901540828688307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24.723400000000002</v>
       </c>
@@ -4049,8 +6837,28 @@
       <c r="H139">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <f t="shared" si="10"/>
+        <v>3.2077501635847434</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>8.581294116822761</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="12"/>
+        <v>8.9697212586478905</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="13"/>
+        <v>3.7708741016665637</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="14"/>
+        <v>3.3491318593588031</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>30.224</v>
       </c>
@@ -4075,8 +6883,28 @@
       <c r="H140">
         <v>0.54710000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <f t="shared" si="10"/>
+        <v>3.408636310759154</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>8.8398562327632639</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="12"/>
+        <v>9.3187659854187714</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="13"/>
+        <v>3.4571050136004513</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="14"/>
+        <v>3.2260500286162013</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>31.216100000000001</v>
       </c>
@@ -4101,8 +6929,28 @@
       <c r="H141">
         <v>0.59189999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <f t="shared" si="10"/>
+        <v>3.4409339873610163</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>9.1112932183749482</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="12"/>
+        <v>9.268596072465769</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="13"/>
+        <v>3.4571050136004513</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="14"/>
+        <v>3.0717669598299886</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>106.27290000000001</v>
       </c>
@@ -4127,8 +6975,28 @@
       <c r="H142">
         <v>0.64570000000000005</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <f t="shared" si="10"/>
+        <v>4.6660103139931639</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>10.253158022321978</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="12"/>
+        <v>8.9230488899007145</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="13"/>
+        <v>4.1984042321468786</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="14"/>
+        <v>3.1963438763611149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>55.362400000000001</v>
       </c>
@@ -4153,8 +7021,28 @@
       <c r="H143">
         <v>0.65329999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <f t="shared" si="10"/>
+        <v>4.0139006629708733</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>9.4783043135618605</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="12"/>
+        <v>8.8571393868489512</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="13"/>
+        <v>4.3349350271400313</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="14"/>
+        <v>3.2688462446428406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>23.4787</v>
       </c>
@@ -4179,8 +7067,28 @@
       <c r="H144">
         <v>0.66039999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <f t="shared" si="10"/>
+        <v>3.1560936271579618</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>8.4982142248184349</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="12"/>
+        <v>8.8155629465728591</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="13"/>
+        <v>4.4148325863990596</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="14"/>
+        <v>3.3574544587142365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22.2623</v>
       </c>
@@ -4205,8 +7113,28 @@
       <c r="H145">
         <v>0.69340000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <f t="shared" si="10"/>
+        <v>3.1028946648584133</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>8.6307004322098315</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="12"/>
+        <v>8.9334914089307311</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="13"/>
+        <v>4.2320464130505897</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="14"/>
+        <v>3.2814749666247205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>30.470700000000001</v>
       </c>
@@ -4231,8 +7159,28 @@
       <c r="H146">
         <v>0.76690000000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <f t="shared" si="10"/>
+        <v>3.4167655661502079</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>8.9946688355006739</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="12"/>
+        <v>8.8536654280374503</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="13"/>
+        <v>3.6124842528602228</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="14"/>
+        <v>3.4265401893339504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>113.59099999999999</v>
       </c>
@@ -4257,8 +7205,28 @@
       <c r="H147">
         <v>0.72540000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <f t="shared" si="10"/>
+        <v>4.7326042777964439</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>10.011310035064874</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="12"/>
+        <v>8.6253388250299032</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="13"/>
+        <v>4.4148325863990596</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="14"/>
+        <v>3.5845461884319185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>88.099100000000007</v>
       </c>
@@ -4283,8 +7251,28 @@
       <c r="H148">
         <v>0.66349999999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <f t="shared" si="10"/>
+        <v>4.4784623172259357</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>10.185692150979541</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="12"/>
+        <v>8.837864099144781</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="13"/>
+        <v>4.2289337285400563</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="14"/>
+        <v>3.0212440627227144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>111.9243</v>
       </c>
@@ -4309,8 +7297,28 @@
       <c r="H149">
         <v>0.68659999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <f t="shared" si="10"/>
+        <v>4.7178227499193994</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>10.37061204103102</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="12"/>
+        <v>8.8495914262647464</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="13"/>
+        <v>4.3203905640154803</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="14"/>
+        <v>3.1394689150323765</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>119.3736</v>
       </c>
@@ -4335,8 +7343,28 @@
       <c r="H150">
         <v>0.67220000000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <f t="shared" si="10"/>
+        <v>4.782258070983433</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>10.428807622452572</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="12"/>
+        <v>8.8906198388026425</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="13"/>
+        <v>4.2599719886665763</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="14"/>
+        <v>3.0977517140308963</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12.324299999999999</v>
       </c>
@@ -4361,8 +7389,28 @@
       <c r="H151">
         <v>0.61609999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <f t="shared" si="10"/>
+        <v>2.5115729231840032</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>7.943072717277933</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="12"/>
+        <v>9.4760835369092096</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="13"/>
+        <v>4.0751617428053271</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="14"/>
+        <v>3.420673158162812</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.31580000000000003</v>
       </c>
@@ -4387,8 +7435,28 @@
       <c r="H152">
         <v>0.65329999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <f t="shared" si="10"/>
+        <v>-1.1526461771605954</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>2.7911651078127169</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="12"/>
+        <v>8.9525756135446972</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="13"/>
+        <v>3.6403717500488928</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="14"/>
+        <v>3.5103506955586781</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10.528700000000001</v>
       </c>
@@ -4413,8 +7481,28 @@
       <c r="H153">
         <v>0.75149999999999995</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <f t="shared" si="10"/>
+        <v>2.3541048617343439</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>7.508238774678663</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="12"/>
+        <v>9.2132830380842474</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="13"/>
+        <v>4.245060779600724</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="14"/>
+        <v>3.5835189384561099</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22.1998</v>
       </c>
@@ -4439,8 +7527,28 @@
       <c r="H154">
         <v>0.70830000000000004</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <f t="shared" si="10"/>
+        <v>3.1000832798286435</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>8.4763711968959825</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="12"/>
+        <v>9.4526957878853519</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="13"/>
+        <v>3.5216435347380228</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="14"/>
+        <v>3.4735180432417816</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6.8292999999999999</v>
       </c>
@@ -4465,8 +7573,28 @@
       <c r="H155">
         <v>0.72030000000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <f t="shared" si="10"/>
+        <v>1.9212221793113067</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>6.8528766174721474</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="12"/>
+        <v>9.2725787498111938</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="13"/>
+        <v>3.7750571503549888</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="14"/>
+        <v>3.9408631028613099</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3.7605</v>
       </c>
@@ -4491,8 +7619,28 @@
       <c r="H156">
         <v>0.56089999999999995</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <f t="shared" si="10"/>
+        <v>1.3245519272843207</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>5.9322451874480109</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="12"/>
+        <v>8.9135825727602178</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="13"/>
+        <v>4.3056854014171595</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="14"/>
+        <v>3.5096331638369098</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3.9822000000000002</v>
       </c>
@@ -4517,8 +7665,28 @@
       <c r="H157">
         <v>0.71509999999999996</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <f t="shared" si="10"/>
+        <v>1.3818344303977972</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>5.9687075599853658</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="12"/>
+        <v>8.6700928032699274</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="13"/>
+        <v>4.3603943345467675</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="14"/>
+        <v>3.7984734957412343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>30.187999999999999</v>
       </c>
@@ -4543,8 +7711,28 @@
       <c r="H158">
         <v>0.7147</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <f t="shared" si="10"/>
+        <v>3.4074444944226219</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="11"/>
+        <v>8.5786645135043393</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="12"/>
+        <v>9.1681246984029521</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="13"/>
+        <v>4.3568113855328177</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="14"/>
+        <v>3.7338528197566676</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>67.856200000000001</v>
       </c>
@@ -4569,8 +7757,31 @@
       <c r="H159">
         <v>0.59450000000000003</v>
       </c>
+      <c r="I159">
+        <f t="shared" si="10"/>
+        <v>4.2173907601459533</v>
+      </c>
+      <c r="J159">
+        <f>LN(B159)</f>
+        <v>9.6303656314156765</v>
+      </c>
+      <c r="K159">
+        <f>LN(C159)</f>
+        <v>8.8516763081924683</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="13"/>
+        <v>4.3044028739876552</v>
+      </c>
+      <c r="M159">
+        <f>LN(G159)</f>
+        <v>3.2450112984728263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>